--- a/a.xlsx
+++ b/a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9C461-0024-4922-83BF-D257D82C663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAE572-057B-4816-A112-A4C78CA7460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>asssa</t>
+  </si>
+  <si>
+    <t>sddsesddfddfdfsdfs</t>
   </si>
 </sst>
 </file>
@@ -345,9 +348,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -356,6 +361,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\GitStuf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAE572-057B-4816-A112-A4C78CA7460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF0237-ADAE-43B3-8D18-7713E9E89C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>asssa</t>
   </si>
   <si>
     <t>sddsesddfddfdfsdfs</t>
+  </si>
+  <si>
+    <t>Git Dinesh</t>
   </si>
 </sst>
 </file>
@@ -348,20 +351,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\GitStuf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF0237-ADAE-43B3-8D18-7713E9E89C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E2692E-A617-443F-9136-0A91C0DB485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>sddsesddfddfdfsdfs</t>
   </si>
   <si>
-    <t>Git Dinesh</t>
+    <t xml:space="preserve">Dinesh </t>
   </si>
 </sst>
 </file>
@@ -354,13 +354,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E2692E-A617-443F-9136-0A91C0DB485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C544B-32BD-4168-886D-F87A4B3BE980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,13 +367,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C544B-32BD-4168-886D-F87A4B3BE980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADE99C-0445-4028-8ECC-05DB32B7542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\GitStuf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADE99C-0445-4028-8ECC-05DB32B7542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120AB75-79E9-4935-A89E-F6FEEBD0533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>asssa</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dinesh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Dinesh </t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,6 +369,9 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
